--- a/natmiOut/OldD7/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.11884985224549</v>
+        <v>0.2047723333333333</v>
       </c>
       <c r="H2">
-        <v>0.11884985224549</v>
+        <v>0.614317</v>
       </c>
       <c r="I2">
-        <v>0.0407887508622642</v>
+        <v>0.04628602070509372</v>
       </c>
       <c r="J2">
-        <v>0.0407887508622642</v>
+        <v>0.04628602070509372</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.446611867381846</v>
+        <v>0.463191</v>
       </c>
       <c r="N2">
-        <v>0.446611867381846</v>
+        <v>1.389573</v>
       </c>
       <c r="O2">
-        <v>0.03707988567574841</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P2">
-        <v>0.03707988567574841</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q2">
-        <v>0.05307975444941477</v>
+        <v>0.09484870184899999</v>
       </c>
       <c r="R2">
-        <v>0.05307975444941477</v>
+        <v>0.853638316641</v>
       </c>
       <c r="S2">
-        <v>0.001512442218829341</v>
+        <v>0.001635361335764572</v>
       </c>
       <c r="T2">
-        <v>0.001512442218829341</v>
+        <v>0.001635361335764572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.11884985224549</v>
+        <v>0.2047723333333333</v>
       </c>
       <c r="H3">
-        <v>0.11884985224549</v>
+        <v>0.614317</v>
       </c>
       <c r="I3">
-        <v>0.0407887508622642</v>
+        <v>0.04628602070509372</v>
       </c>
       <c r="J3">
-        <v>0.0407887508622642</v>
+        <v>0.04628602070509372</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.897926520279681</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N3">
-        <v>9.897926520279681</v>
+        <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.8217739173624282</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P3">
-        <v>0.8217739173624282</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q3">
-        <v>1.176367104471957</v>
+        <v>2.033989116421778</v>
       </c>
       <c r="R3">
-        <v>1.176367104471957</v>
+        <v>18.305902047796</v>
       </c>
       <c r="S3">
-        <v>0.03351913158040297</v>
+        <v>0.03506961185043556</v>
       </c>
       <c r="T3">
-        <v>0.03351913158040297</v>
+        <v>0.03506961185043556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.11884985224549</v>
+        <v>0.2047723333333333</v>
       </c>
       <c r="H4">
-        <v>0.11884985224549</v>
+        <v>0.614317</v>
       </c>
       <c r="I4">
-        <v>0.0407887508622642</v>
+        <v>0.04628602070509372</v>
       </c>
       <c r="J4">
-        <v>0.0407887508622642</v>
+        <v>0.04628602070509372</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.70004749071259</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N4">
-        <v>1.70004749071259</v>
+        <v>0.385663</v>
       </c>
       <c r="O4">
-        <v>0.1411461969618234</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P4">
-        <v>0.1411461969618234</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q4">
-        <v>0.2020503930815074</v>
+        <v>0.02632437079677778</v>
       </c>
       <c r="R4">
-        <v>0.2020503930815074</v>
+        <v>0.236919337171</v>
       </c>
       <c r="S4">
-        <v>0.005757177063031887</v>
+        <v>0.000453879255595044</v>
       </c>
       <c r="T4">
-        <v>0.005757177063031887</v>
+        <v>0.000453879255595044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.952279044426102</v>
+        <v>0.2047723333333333</v>
       </c>
       <c r="H5">
-        <v>0.952279044426102</v>
+        <v>0.614317</v>
       </c>
       <c r="I5">
-        <v>0.3268180141631202</v>
+        <v>0.04628602070509372</v>
       </c>
       <c r="J5">
-        <v>0.3268180141631202</v>
+        <v>0.04628602070509372</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.446611867381846</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N5">
-        <v>0.446611867381846</v>
+        <v>7.755391</v>
       </c>
       <c r="O5">
-        <v>0.03707988567574841</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P5">
-        <v>0.03707988567574841</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q5">
-        <v>0.4252991222997413</v>
+        <v>0.5293631703274444</v>
       </c>
       <c r="R5">
-        <v>0.4252991222997413</v>
+        <v>4.764268532947</v>
       </c>
       <c r="S5">
-        <v>0.01211837460194362</v>
+        <v>0.009127168263298537</v>
       </c>
       <c r="T5">
-        <v>0.01211837460194362</v>
+        <v>0.009127168263298539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.952279044426102</v>
+        <v>1.029733</v>
       </c>
       <c r="H6">
-        <v>0.952279044426102</v>
+        <v>3.089199</v>
       </c>
       <c r="I6">
-        <v>0.3268180141631202</v>
+        <v>0.2327572391390028</v>
       </c>
       <c r="J6">
-        <v>0.3268180141631202</v>
+        <v>0.2327572391390028</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.897926520279681</v>
+        <v>0.463191</v>
       </c>
       <c r="N6">
-        <v>9.897926520279681</v>
+        <v>1.389573</v>
       </c>
       <c r="O6">
-        <v>0.8217739173624282</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P6">
-        <v>0.8217739173624282</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q6">
-        <v>9.425588008531708</v>
+        <v>0.476963058003</v>
       </c>
       <c r="R6">
-        <v>9.425588008531708</v>
+        <v>4.292667522026999</v>
       </c>
       <c r="S6">
-        <v>0.2685705197634368</v>
+        <v>0.008223696565588417</v>
       </c>
       <c r="T6">
-        <v>0.2685705197634368</v>
+        <v>0.008223696565588417</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.952279044426102</v>
+        <v>1.029733</v>
       </c>
       <c r="H7">
-        <v>0.952279044426102</v>
+        <v>3.089199</v>
       </c>
       <c r="I7">
-        <v>0.3268180141631202</v>
+        <v>0.2327572391390028</v>
       </c>
       <c r="J7">
-        <v>0.3268180141631202</v>
+        <v>0.2327572391390028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.70004749071259</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N7">
-        <v>1.70004749071259</v>
+        <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.1411461969618234</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P7">
-        <v>0.1411461969618234</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q7">
-        <v>1.618919599934778</v>
+        <v>10.22826512120133</v>
       </c>
       <c r="R7">
-        <v>1.618919599934778</v>
+        <v>92.05438609081199</v>
       </c>
       <c r="S7">
-        <v>0.04612911979773976</v>
+        <v>0.1763535924591924</v>
       </c>
       <c r="T7">
-        <v>0.04612911979773976</v>
+        <v>0.1763535924591924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.8426610511212</v>
+        <v>1.029733</v>
       </c>
       <c r="H8">
-        <v>1.8426610511212</v>
+        <v>3.089199</v>
       </c>
       <c r="I8">
-        <v>0.6323932349746155</v>
+        <v>0.2327572391390028</v>
       </c>
       <c r="J8">
-        <v>0.6323932349746155</v>
+        <v>0.2327572391390028</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.446611867381846</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N8">
-        <v>0.446611867381846</v>
+        <v>0.385663</v>
       </c>
       <c r="O8">
-        <v>0.03707988567574841</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P8">
-        <v>0.03707988567574841</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q8">
-        <v>0.8229542929930344</v>
+        <v>0.1323766393263333</v>
       </c>
       <c r="R8">
-        <v>0.8229542929930344</v>
+        <v>1.191389753937</v>
       </c>
       <c r="S8">
-        <v>0.02344906885497544</v>
+        <v>0.002282410127841089</v>
       </c>
       <c r="T8">
-        <v>0.02344906885497544</v>
+        <v>0.002282410127841089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.8426610511212</v>
+        <v>1.029733</v>
       </c>
       <c r="H9">
-        <v>1.8426610511212</v>
+        <v>3.089199</v>
       </c>
       <c r="I9">
-        <v>0.6323932349746155</v>
+        <v>0.2327572391390028</v>
       </c>
       <c r="J9">
-        <v>0.6323932349746155</v>
+        <v>0.2327572391390028</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.897926520279681</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N9">
-        <v>9.897926520279681</v>
+        <v>7.755391</v>
       </c>
       <c r="O9">
-        <v>0.8217739173624282</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P9">
-        <v>0.8217739173624282</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q9">
-        <v>18.23852368577896</v>
+        <v>2.661994013534333</v>
       </c>
       <c r="R9">
-        <v>18.23852368577896</v>
+        <v>23.957946121809</v>
       </c>
       <c r="S9">
-        <v>0.5196842660185883</v>
+        <v>0.04589753998638094</v>
       </c>
       <c r="T9">
-        <v>0.5196842660185883</v>
+        <v>0.04589753998638094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.012677</v>
+      </c>
+      <c r="I10">
+        <v>0.0009551548866114287</v>
+      </c>
+      <c r="J10">
+        <v>0.0009551548866114289</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.463191</v>
+      </c>
+      <c r="N10">
+        <v>1.389573</v>
+      </c>
+      <c r="O10">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="P10">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="Q10">
+        <v>0.001957290769</v>
+      </c>
+      <c r="R10">
+        <v>0.017615616921</v>
+      </c>
+      <c r="S10">
+        <v>3.374719510201977E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.374719510201977E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.012677</v>
+      </c>
+      <c r="I11">
+        <v>0.0009551548866114287</v>
+      </c>
+      <c r="J11">
+        <v>0.0009551548866114289</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.932929333333332</v>
+      </c>
+      <c r="N11">
+        <v>29.798788</v>
+      </c>
+      <c r="O11">
+        <v>0.7576717833204485</v>
+      </c>
+      <c r="P11">
+        <v>0.7576717833204486</v>
+      </c>
+      <c r="Q11">
+        <v>0.04197324838622222</v>
+      </c>
+      <c r="R11">
+        <v>0.377759235476</v>
+      </c>
+      <c r="S11">
+        <v>0.000723693906286122</v>
+      </c>
+      <c r="T11">
+        <v>0.0007236939062861222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.012677</v>
+      </c>
+      <c r="I12">
+        <v>0.0009551548866114287</v>
+      </c>
+      <c r="J12">
+        <v>0.0009551548866114289</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1285543333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.385663</v>
+      </c>
+      <c r="O12">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="P12">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="Q12">
+        <v>0.0005432277612222222</v>
+      </c>
+      <c r="R12">
+        <v>0.004889049851</v>
+      </c>
+      <c r="S12">
+        <v>9.366218618690958E-06</v>
+      </c>
+      <c r="T12">
+        <v>9.366218618690958E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.004225666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.012677</v>
+      </c>
+      <c r="I13">
+        <v>0.0009551548866114287</v>
+      </c>
+      <c r="J13">
+        <v>0.0009551548866114289</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.585130333333333</v>
+      </c>
+      <c r="N13">
+        <v>7.755391</v>
+      </c>
+      <c r="O13">
+        <v>0.1971906014874617</v>
+      </c>
+      <c r="P13">
+        <v>0.1971906014874618</v>
+      </c>
+      <c r="Q13">
+        <v>0.01092389907855556</v>
+      </c>
+      <c r="R13">
+        <v>0.09831509170700001</v>
+      </c>
+      <c r="S13">
+        <v>0.000188347566604596</v>
+      </c>
+      <c r="T13">
+        <v>0.000188347566604596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.185333333333334</v>
+      </c>
+      <c r="H14">
+        <v>9.556000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.720001585269292</v>
+      </c>
+      <c r="J14">
+        <v>0.7200015852692919</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.463191</v>
+      </c>
+      <c r="N14">
+        <v>1.389573</v>
+      </c>
+      <c r="O14">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="P14">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="Q14">
+        <v>1.475417732</v>
+      </c>
+      <c r="R14">
+        <v>13.278759588</v>
+      </c>
+      <c r="S14">
+        <v>0.02543884171293689</v>
+      </c>
+      <c r="T14">
+        <v>0.02543884171293689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.185333333333334</v>
+      </c>
+      <c r="H15">
+        <v>9.556000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.720001585269292</v>
+      </c>
+      <c r="J15">
+        <v>0.7200015852692919</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.932929333333332</v>
+      </c>
+      <c r="N15">
+        <v>29.798788</v>
+      </c>
+      <c r="O15">
+        <v>0.7576717833204485</v>
+      </c>
+      <c r="P15">
+        <v>0.7576717833204486</v>
+      </c>
+      <c r="Q15">
+        <v>31.63969090311111</v>
+      </c>
+      <c r="R15">
+        <v>284.757218128</v>
+      </c>
+      <c r="S15">
+        <v>0.5455248851045345</v>
+      </c>
+      <c r="T15">
+        <v>0.5455248851045345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.8426610511212</v>
-      </c>
-      <c r="H10">
-        <v>1.8426610511212</v>
-      </c>
-      <c r="I10">
-        <v>0.6323932349746155</v>
-      </c>
-      <c r="J10">
-        <v>0.6323932349746155</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.70004749071259</v>
-      </c>
-      <c r="N10">
-        <v>1.70004749071259</v>
-      </c>
-      <c r="O10">
-        <v>0.1411461969618234</v>
-      </c>
-      <c r="P10">
-        <v>0.1411461969618234</v>
-      </c>
-      <c r="Q10">
-        <v>3.13261129619242</v>
-      </c>
-      <c r="R10">
-        <v>3.13261129619242</v>
-      </c>
-      <c r="S10">
-        <v>0.08925990010105177</v>
-      </c>
-      <c r="T10">
-        <v>0.08925990010105177</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.185333333333334</v>
+      </c>
+      <c r="H16">
+        <v>9.556000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.720001585269292</v>
+      </c>
+      <c r="J16">
+        <v>0.7200015852692919</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1285543333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.385663</v>
+      </c>
+      <c r="O16">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="P16">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="Q16">
+        <v>0.4094884031111111</v>
+      </c>
+      <c r="R16">
+        <v>3.685395628</v>
+      </c>
+      <c r="S16">
+        <v>0.007060312780642961</v>
+      </c>
+      <c r="T16">
+        <v>0.00706031278064296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.185333333333334</v>
+      </c>
+      <c r="H17">
+        <v>9.556000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.720001585269292</v>
+      </c>
+      <c r="J17">
+        <v>0.7200015852692919</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.585130333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.755391</v>
+      </c>
+      <c r="O17">
+        <v>0.1971906014874617</v>
+      </c>
+      <c r="P17">
+        <v>0.1971906014874618</v>
+      </c>
+      <c r="Q17">
+        <v>8.234501821777778</v>
+      </c>
+      <c r="R17">
+        <v>74.11051639600001</v>
+      </c>
+      <c r="S17">
+        <v>0.1419775456711777</v>
+      </c>
+      <c r="T17">
+        <v>0.1419775456711777</v>
       </c>
     </row>
   </sheetData>
